--- a/output/regression_output/regression_table_1.xlsx
+++ b/output/regression_output/regression_table_1.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
